--- a/hasil/2023_01_lipa_19.xlsx
+++ b/hasil/2023_01_lipa_19.xlsx
@@ -308,13 +308,13 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 06 Juni 2023</t>
+    <t>Ternate , 17 Juli 2023</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>
   </si>
   <si>
-    <t>Panitera,</t>
+    <t xml:space="preserve">Panitera, </t>
   </si>
   <si>
     <t>Drs. Djabir Sasole, M.H</t>
@@ -436,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
@@ -503,14 +503,6 @@
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
@@ -916,1543 +908,1543 @@
       </c>
     </row>
     <row r="6" spans="1:19" customHeight="1" ht="15.6">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="15"/>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14" t="s">
+      <c r="E6" s="15"/>
+      <c r="F6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:19" customHeight="1" ht="15.6">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="15"/>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="14"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:19" customHeight="1" ht="15.6">
-      <c r="A8" s="18">
+      <c r="A8" s="17">
         <v>1</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="17">
         <v>2</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="17">
         <v>3</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="17">
         <v>4</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="17">
         <v>5</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="17">
         <v>6</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="17">
         <v>7</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="17">
         <v>8</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="17">
         <v>9</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="17">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:19" customHeight="1" ht="44">
-      <c r="A9" s="17">
+    <row r="9" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17" t="s">
+      <c r="D9" s="16"/>
+      <c r="E9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17" t="s">
+      <c r="F9" s="16"/>
+      <c r="G9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
     </row>
-    <row r="10" spans="1:19" customHeight="1" ht="44">
-      <c r="A10" s="17">
+    <row r="10" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A10" s="16">
         <v>2</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17" t="s">
+      <c r="D10" s="16"/>
+      <c r="E10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17" t="s">
+      <c r="F10" s="16"/>
+      <c r="G10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" spans="1:19" customHeight="1" ht="44">
-      <c r="A11" s="17">
+    <row r="11" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A11" s="16">
         <v>3</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17" t="s">
+      <c r="D11" s="16"/>
+      <c r="E11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17" t="s">
+      <c r="F11" s="16"/>
+      <c r="G11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="1:19" customHeight="1" ht="44">
-      <c r="A12" s="17">
+    <row r="12" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A12" s="16">
         <v>4</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17" t="s">
+      <c r="D12" s="16"/>
+      <c r="E12" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17" t="s">
+      <c r="F12" s="16"/>
+      <c r="G12" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="R12" s="3"/>
     </row>
-    <row r="13" spans="1:19" customHeight="1" ht="44">
-      <c r="A13" s="17">
+    <row r="13" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A13" s="16">
         <v>5</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17" t="s">
+      <c r="D13" s="16"/>
+      <c r="E13" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17" t="s">
+      <c r="F13" s="16"/>
+      <c r="G13" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="R13" s="3"/>
     </row>
-    <row r="14" spans="1:19" customHeight="1" ht="44">
-      <c r="A14" s="17">
+    <row r="14" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A14" s="16">
         <v>6</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17" t="s">
+      <c r="D14" s="16"/>
+      <c r="E14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17" t="s">
+      <c r="F14" s="16"/>
+      <c r="G14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="R14" s="3"/>
     </row>
-    <row r="15" spans="1:19" customHeight="1" ht="44">
-      <c r="A15" s="17">
+    <row r="15" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A15" s="16">
         <v>7</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17" t="s">
+      <c r="D15" s="16"/>
+      <c r="E15" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17" t="s">
+      <c r="F15" s="16"/>
+      <c r="G15" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="R15" s="3"/>
     </row>
-    <row r="16" spans="1:19" customHeight="1" ht="44">
-      <c r="A16" s="17">
+    <row r="16" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A16" s="16">
         <v>8</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17" t="s">
+      <c r="D16" s="16"/>
+      <c r="E16" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17" t="s">
+      <c r="F16" s="16"/>
+      <c r="G16" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="R16" s="3"/>
     </row>
-    <row r="17" spans="1:19" customHeight="1" ht="44">
-      <c r="A17" s="17">
+    <row r="17" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A17" s="16">
         <v>9</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="16" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17" t="s">
+      <c r="D17" s="16"/>
+      <c r="E17" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17" t="s">
+      <c r="F17" s="16"/>
+      <c r="G17" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="R17" s="3"/>
     </row>
-    <row r="18" spans="1:19" customHeight="1" ht="44">
-      <c r="A18" s="17">
+    <row r="18" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A18" s="16">
         <v>10</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17" t="s">
+      <c r="D18" s="16"/>
+      <c r="E18" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17" t="s">
+      <c r="F18" s="16"/>
+      <c r="G18" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="R18" s="3"/>
     </row>
-    <row r="19" spans="1:19" customHeight="1" ht="44">
-      <c r="A19" s="17">
+    <row r="19" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A19" s="16">
         <v>11</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17" t="s">
+      <c r="F19" s="16"/>
+      <c r="G19" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="R19" s="3"/>
     </row>
-    <row r="20" spans="1:19" customHeight="1" ht="44">
-      <c r="A20" s="17">
+    <row r="20" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A20" s="16">
         <v>12</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17" t="s">
+      <c r="D20" s="16"/>
+      <c r="E20" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17" t="s">
+      <c r="F20" s="16"/>
+      <c r="G20" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="R20" s="3"/>
     </row>
-    <row r="21" spans="1:19" customHeight="1" ht="44">
-      <c r="A21" s="17">
+    <row r="21" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A21" s="16">
         <v>13</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="16" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17" t="s">
+      <c r="D21" s="16"/>
+      <c r="E21" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17" t="s">
+      <c r="F21" s="16"/>
+      <c r="G21" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="R21" s="3"/>
     </row>
-    <row r="22" spans="1:19" customHeight="1" ht="44">
-      <c r="A22" s="17">
+    <row r="22" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A22" s="16">
         <v>14</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17" t="s">
+      <c r="D22" s="16"/>
+      <c r="E22" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17" t="s">
+      <c r="F22" s="16"/>
+      <c r="G22" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="R22" s="3"/>
     </row>
-    <row r="23" spans="1:19" customHeight="1" ht="44">
-      <c r="A23" s="17">
+    <row r="23" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A23" s="16">
         <v>15</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17" t="s">
+      <c r="D23" s="16"/>
+      <c r="E23" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17" t="s">
+      <c r="F23" s="16"/>
+      <c r="G23" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="R23" s="3"/>
     </row>
-    <row r="24" spans="1:19" customHeight="1" ht="44">
-      <c r="A24" s="17">
+    <row r="24" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A24" s="16">
         <v>16</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17" t="s">
+      <c r="D24" s="16"/>
+      <c r="E24" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17" t="s">
+      <c r="F24" s="16"/>
+      <c r="G24" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="R24" s="3"/>
     </row>
-    <row r="25" spans="1:19" customHeight="1" ht="44">
-      <c r="A25" s="17">
+    <row r="25" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A25" s="16">
         <v>17</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17" t="s">
+      <c r="D25" s="16"/>
+      <c r="E25" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17" t="s">
+      <c r="F25" s="16"/>
+      <c r="G25" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="R25" s="3"/>
     </row>
-    <row r="26" spans="1:19" customHeight="1" ht="44">
-      <c r="A26" s="17">
+    <row r="26" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A26" s="16">
         <v>18</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17" t="s">
+      <c r="D26" s="16"/>
+      <c r="E26" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17" t="s">
+      <c r="F26" s="16"/>
+      <c r="G26" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="R26" s="3"/>
     </row>
-    <row r="27" spans="1:19" customHeight="1" ht="44">
-      <c r="A27" s="17">
+    <row r="27" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A27" s="16">
         <v>19</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>43</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17" t="s">
+      <c r="D27" s="16"/>
+      <c r="E27" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17" t="s">
+      <c r="F27" s="16"/>
+      <c r="G27" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="R27" s="3"/>
     </row>
-    <row r="28" spans="1:19" customHeight="1" ht="44">
-      <c r="A28" s="17">
+    <row r="28" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A28" s="16">
         <v>20</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="16" t="s">
         <v>44</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17" t="s">
+      <c r="D28" s="16"/>
+      <c r="E28" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17" t="s">
+      <c r="F28" s="16"/>
+      <c r="G28" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="R28" s="3"/>
     </row>
-    <row r="29" spans="1:19" customHeight="1" ht="44">
-      <c r="A29" s="17">
+    <row r="29" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A29" s="16">
         <v>21</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="16" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17" t="s">
+      <c r="D29" s="16"/>
+      <c r="E29" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17" t="s">
+      <c r="F29" s="16"/>
+      <c r="G29" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="R29" s="3"/>
     </row>
-    <row r="30" spans="1:19" customHeight="1" ht="44">
-      <c r="A30" s="17">
+    <row r="30" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A30" s="16">
         <v>22</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17" t="s">
+      <c r="D30" s="16"/>
+      <c r="E30" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17" t="s">
+      <c r="F30" s="16"/>
+      <c r="G30" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
       <c r="R30" s="3"/>
     </row>
-    <row r="31" spans="1:19" customHeight="1" ht="44">
-      <c r="A31" s="17">
+    <row r="31" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A31" s="16">
         <v>23</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="16" t="s">
         <v>47</v>
       </c>
       <c r="C31" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17" t="s">
+      <c r="D31" s="16"/>
+      <c r="E31" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17" t="s">
+      <c r="F31" s="16"/>
+      <c r="G31" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
     </row>
-    <row r="32" spans="1:19" customHeight="1" ht="44">
-      <c r="A32" s="17">
+    <row r="32" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A32" s="16">
         <v>24</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="16" t="s">
         <v>48</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17" t="s">
+      <c r="D32" s="16"/>
+      <c r="E32" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17" t="s">
+      <c r="F32" s="16"/>
+      <c r="G32" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
     </row>
-    <row r="33" spans="1:19" customHeight="1" ht="44">
-      <c r="A33" s="17">
+    <row r="33" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A33" s="16">
         <v>25</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="16" t="s">
         <v>51</v>
       </c>
       <c r="C33" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17" t="s">
+      <c r="D33" s="16"/>
+      <c r="E33" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17" t="s">
+      <c r="F33" s="16"/>
+      <c r="G33" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
     </row>
-    <row r="34" spans="1:19" customHeight="1" ht="44">
-      <c r="A34" s="17">
+    <row r="34" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A34" s="16">
         <v>26</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="16" t="s">
         <v>52</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17" t="s">
+      <c r="D34" s="16"/>
+      <c r="E34" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17" t="s">
+      <c r="F34" s="16"/>
+      <c r="G34" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
     </row>
-    <row r="35" spans="1:19" customHeight="1" ht="44">
-      <c r="A35" s="17">
+    <row r="35" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A35" s="16">
         <v>27</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="16" t="s">
         <v>53</v>
       </c>
       <c r="C35" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17" t="s">
+      <c r="D35" s="16"/>
+      <c r="E35" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17" t="s">
+      <c r="F35" s="16"/>
+      <c r="G35" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
     </row>
-    <row r="36" spans="1:19" customHeight="1" ht="44">
-      <c r="A36" s="17">
+    <row r="36" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A36" s="16">
         <v>28</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="16" t="s">
         <v>54</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17" t="s">
+      <c r="D36" s="16"/>
+      <c r="E36" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17" t="s">
+      <c r="F36" s="16"/>
+      <c r="G36" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
     </row>
-    <row r="37" spans="1:19" customHeight="1" ht="44">
-      <c r="A37" s="17">
+    <row r="37" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A37" s="16">
         <v>29</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="16" t="s">
         <v>56</v>
       </c>
       <c r="C37" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17" t="s">
+      <c r="D37" s="16"/>
+      <c r="E37" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17" t="s">
+      <c r="F37" s="16"/>
+      <c r="G37" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
     </row>
-    <row r="38" spans="1:19" customHeight="1" ht="44">
-      <c r="A38" s="17">
+    <row r="38" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A38" s="16">
         <v>30</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="16" t="s">
         <v>57</v>
       </c>
       <c r="C38" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17" t="s">
+      <c r="D38" s="16"/>
+      <c r="E38" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17" t="s">
+      <c r="F38" s="16"/>
+      <c r="G38" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
     </row>
-    <row r="39" spans="1:19" customHeight="1" ht="44">
-      <c r="A39" s="17">
+    <row r="39" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A39" s="16">
         <v>31</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C39" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17" t="s">
+      <c r="D39" s="16"/>
+      <c r="E39" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17" t="s">
+      <c r="F39" s="16"/>
+      <c r="G39" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
     </row>
-    <row r="40" spans="1:19" customHeight="1" ht="44">
-      <c r="A40" s="17">
+    <row r="40" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A40" s="16">
         <v>32</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="16" t="s">
         <v>61</v>
       </c>
       <c r="C40" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17" t="s">
+      <c r="D40" s="16"/>
+      <c r="E40" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17" t="s">
+      <c r="F40" s="16"/>
+      <c r="G40" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
     </row>
-    <row r="41" spans="1:19" customHeight="1" ht="44">
-      <c r="A41" s="17">
+    <row r="41" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A41" s="16">
         <v>33</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="16" t="s">
         <v>62</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17" t="s">
+      <c r="D41" s="16"/>
+      <c r="E41" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17" t="s">
+      <c r="F41" s="16"/>
+      <c r="G41" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
     </row>
-    <row r="42" spans="1:19" customHeight="1" ht="44">
-      <c r="A42" s="17">
+    <row r="42" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A42" s="16">
         <v>34</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="16" t="s">
         <v>63</v>
       </c>
       <c r="C42" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17" t="s">
+      <c r="D42" s="16"/>
+      <c r="E42" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17" t="s">
+      <c r="F42" s="16"/>
+      <c r="G42" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
     </row>
-    <row r="43" spans="1:19" customHeight="1" ht="44">
-      <c r="A43" s="17">
+    <row r="43" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A43" s="16">
         <v>35</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="16" t="s">
         <v>64</v>
       </c>
       <c r="C43" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17" t="s">
+      <c r="D43" s="16"/>
+      <c r="E43" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17" t="s">
+      <c r="F43" s="16"/>
+      <c r="G43" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
     </row>
-    <row r="44" spans="1:19" customHeight="1" ht="44">
-      <c r="A44" s="17">
+    <row r="44" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A44" s="16">
         <v>36</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="16" t="s">
         <v>65</v>
       </c>
       <c r="C44" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17" t="s">
+      <c r="D44" s="16"/>
+      <c r="E44" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17" t="s">
+      <c r="F44" s="16"/>
+      <c r="G44" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
       <c r="S44" s="4"/>
     </row>
-    <row r="45" spans="1:19" customHeight="1" ht="44">
-      <c r="A45" s="17">
+    <row r="45" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A45" s="16">
         <v>37</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="16" t="s">
         <v>66</v>
       </c>
       <c r="C45" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17" t="s">
+      <c r="D45" s="16"/>
+      <c r="E45" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17" t="s">
+      <c r="F45" s="16"/>
+      <c r="G45" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
     </row>
-    <row r="46" spans="1:19" customHeight="1" ht="44">
-      <c r="A46" s="17">
+    <row r="46" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A46" s="16">
         <v>38</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="16" t="s">
         <v>67</v>
       </c>
       <c r="C46" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17" t="s">
+      <c r="D46" s="16"/>
+      <c r="E46" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17" t="s">
+      <c r="F46" s="16"/>
+      <c r="G46" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
     </row>
-    <row r="47" spans="1:19" customHeight="1" ht="44">
-      <c r="A47" s="17">
+    <row r="47" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A47" s="16">
         <v>39</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="16" t="s">
         <v>69</v>
       </c>
       <c r="C47" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17" t="s">
+      <c r="D47" s="16"/>
+      <c r="E47" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17" t="s">
+      <c r="F47" s="16"/>
+      <c r="G47" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
     </row>
-    <row r="48" spans="1:19" customHeight="1" ht="44">
-      <c r="A48" s="17">
+    <row r="48" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A48" s="16">
         <v>40</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="16" t="s">
         <v>70</v>
       </c>
       <c r="C48" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17" t="s">
+      <c r="D48" s="16"/>
+      <c r="E48" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17" t="s">
+      <c r="F48" s="16"/>
+      <c r="G48" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
     </row>
-    <row r="49" spans="1:19" customHeight="1" ht="44">
-      <c r="A49" s="17">
+    <row r="49" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A49" s="16">
         <v>41</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="16" t="s">
         <v>71</v>
       </c>
       <c r="C49" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17" t="s">
+      <c r="D49" s="16"/>
+      <c r="E49" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17" t="s">
+      <c r="F49" s="16"/>
+      <c r="G49" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
     </row>
-    <row r="50" spans="1:19" customHeight="1" ht="44">
-      <c r="A50" s="17">
+    <row r="50" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A50" s="16">
         <v>42</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="16" t="s">
         <v>72</v>
       </c>
       <c r="C50" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17" t="s">
+      <c r="D50" s="16"/>
+      <c r="E50" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17" t="s">
+      <c r="F50" s="16"/>
+      <c r="G50" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
     </row>
-    <row r="51" spans="1:19" customHeight="1" ht="44">
-      <c r="A51" s="17">
+    <row r="51" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A51" s="16">
         <v>43</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="16" t="s">
         <v>73</v>
       </c>
       <c r="C51" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17" t="s">
+      <c r="D51" s="16"/>
+      <c r="E51" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17" t="s">
+      <c r="F51" s="16"/>
+      <c r="G51" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
     </row>
-    <row r="52" spans="1:19" customHeight="1" ht="44">
-      <c r="A52" s="17">
+    <row r="52" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A52" s="16">
         <v>44</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="16" t="s">
         <v>74</v>
       </c>
       <c r="C52" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17" t="s">
+      <c r="D52" s="16"/>
+      <c r="E52" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17" t="s">
+      <c r="F52" s="16"/>
+      <c r="G52" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
     </row>
-    <row r="53" spans="1:19" customHeight="1" ht="44">
-      <c r="A53" s="17">
+    <row r="53" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A53" s="16">
         <v>45</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="16" t="s">
         <v>75</v>
       </c>
       <c r="C53" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17" t="s">
+      <c r="D53" s="16"/>
+      <c r="E53" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17" t="s">
+      <c r="F53" s="16"/>
+      <c r="G53" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
       <c r="M53" s="9"/>
     </row>
-    <row r="54" spans="1:19" customHeight="1" ht="44">
-      <c r="A54" s="17">
+    <row r="54" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A54" s="16">
         <v>46</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="16" t="s">
         <v>77</v>
       </c>
       <c r="C54" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17" t="s">
+      <c r="D54" s="16"/>
+      <c r="E54" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17" t="s">
+      <c r="F54" s="16"/>
+      <c r="G54" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
     </row>
-    <row r="55" spans="1:19" customHeight="1" ht="44">
-      <c r="A55" s="17">
+    <row r="55" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A55" s="16">
         <v>47</v>
       </c>
-      <c r="B55" s="17" t="s">
+      <c r="B55" s="16" t="s">
         <v>78</v>
       </c>
       <c r="C55" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17" t="s">
+      <c r="D55" s="16"/>
+      <c r="E55" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17" t="s">
+      <c r="F55" s="16"/>
+      <c r="G55" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="17"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
     </row>
-    <row r="56" spans="1:19" customHeight="1" ht="44">
-      <c r="A56" s="17">
+    <row r="56" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A56" s="16">
         <v>48</v>
       </c>
-      <c r="B56" s="17" t="s">
+      <c r="B56" s="16" t="s">
         <v>79</v>
       </c>
       <c r="C56" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17" t="s">
+      <c r="D56" s="16"/>
+      <c r="E56" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17" t="s">
+      <c r="F56" s="16"/>
+      <c r="G56" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
       <c r="M56" s="9"/>
     </row>
-    <row r="57" spans="1:19" customHeight="1" ht="44">
-      <c r="A57" s="17">
+    <row r="57" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A57" s="16">
         <v>49</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="16" t="s">
         <v>81</v>
       </c>
       <c r="C57" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17" t="s">
+      <c r="D57" s="16"/>
+      <c r="E57" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17" t="s">
+      <c r="F57" s="16"/>
+      <c r="G57" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
       <c r="M57" s="9"/>
     </row>
-    <row r="58" spans="1:19" customHeight="1" ht="44">
-      <c r="A58" s="17">
+    <row r="58" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A58" s="16">
         <v>50</v>
       </c>
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="16" t="s">
         <v>82</v>
       </c>
       <c r="C58" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17" t="s">
+      <c r="D58" s="16"/>
+      <c r="E58" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17" t="s">
+      <c r="F58" s="16"/>
+      <c r="G58" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
       <c r="M58" s="9"/>
     </row>
-    <row r="59" spans="1:19" customHeight="1" ht="44">
-      <c r="A59" s="17">
+    <row r="59" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A59" s="16">
         <v>51</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="16" t="s">
         <v>84</v>
       </c>
       <c r="C59" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17" t="s">
+      <c r="D59" s="16"/>
+      <c r="E59" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17" t="s">
+      <c r="F59" s="16"/>
+      <c r="G59" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
     </row>
-    <row r="60" spans="1:19" customHeight="1" ht="44">
-      <c r="A60" s="17">
+    <row r="60" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A60" s="16">
         <v>52</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="16" t="s">
         <v>85</v>
       </c>
       <c r="C60" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D60" s="17" t="s">
+      <c r="D60" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17" t="s">
+      <c r="E60" s="16"/>
+      <c r="F60" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="17"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
     </row>
-    <row r="61" spans="1:19" customHeight="1" ht="44">
-      <c r="A61" s="17">
+    <row r="61" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A61" s="16">
         <v>53</v>
       </c>
-      <c r="B61" s="17" t="s">
+      <c r="B61" s="16" t="s">
         <v>87</v>
       </c>
       <c r="C61" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D61" s="17" t="s">
+      <c r="D61" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17" t="s">
+      <c r="E61" s="16"/>
+      <c r="F61" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="17"/>
-      <c r="J61" s="17"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="16"/>
       <c r="K61" s="9"/>
       <c r="L61" s="10"/>
       <c r="M61" s="9"/>
     </row>
-    <row r="62" spans="1:19" customHeight="1" ht="44">
-      <c r="A62" s="17">
+    <row r="62" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A62" s="16">
         <v>54</v>
       </c>
-      <c r="B62" s="17" t="s">
+      <c r="B62" s="16" t="s">
         <v>88</v>
       </c>
       <c r="C62" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D62" s="17" t="s">
+      <c r="D62" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17" t="s">
+      <c r="E62" s="16"/>
+      <c r="F62" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="17"/>
-      <c r="J62" s="17"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="16"/>
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
     </row>
-    <row r="63" spans="1:19" customHeight="1" ht="44">
-      <c r="A63" s="17">
+    <row r="63" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A63" s="16">
         <v>55</v>
       </c>
-      <c r="B63" s="17" t="s">
+      <c r="B63" s="16" t="s">
         <v>89</v>
       </c>
       <c r="C63" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D63" s="17" t="s">
+      <c r="D63" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17" t="s">
+      <c r="E63" s="16"/>
+      <c r="F63" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="G63" s="17"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="17"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="16"/>
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
       <c r="M63" s="9"/>
     </row>
-    <row r="64" spans="1:19" customHeight="1" ht="44">
-      <c r="A64" s="17">
+    <row r="64" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A64" s="16">
         <v>56</v>
       </c>
-      <c r="B64" s="17" t="s">
+      <c r="B64" s="16" t="s">
         <v>90</v>
       </c>
       <c r="C64" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D64" s="17" t="s">
+      <c r="D64" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17" t="s">
+      <c r="E64" s="16"/>
+      <c r="F64" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="17"/>
-      <c r="J64" s="17"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="16"/>
       <c r="K64" s="9"/>
       <c r="L64" s="9"/>
       <c r="M64" s="9"/>
     </row>
-    <row r="65" spans="1:19" customHeight="1" ht="44">
-      <c r="A65" s="17">
+    <row r="65" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A65" s="16">
         <v>57</v>
       </c>
-      <c r="B65" s="17" t="s">
+      <c r="B65" s="16" t="s">
         <v>91</v>
       </c>
       <c r="C65" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D65" s="17" t="s">
+      <c r="D65" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17" t="s">
+      <c r="E65" s="16"/>
+      <c r="F65" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="17"/>
-      <c r="J65" s="17"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="16"/>
       <c r="K65" s="9"/>
       <c r="L65" s="9"/>
       <c r="M65" s="9"/>
     </row>
-    <row r="66" spans="1:19" customHeight="1" ht="44">
-      <c r="A66" s="17">
+    <row r="66" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A66" s="16">
         <v>58</v>
       </c>
-      <c r="B66" s="17" t="s">
+      <c r="B66" s="16" t="s">
         <v>92</v>
       </c>
       <c r="C66" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D66" s="17" t="s">
+      <c r="D66" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17" t="s">
+      <c r="E66" s="16"/>
+      <c r="F66" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="G66" s="17"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="17"/>
-      <c r="J66" s="17"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="16"/>
       <c r="K66" s="9"/>
       <c r="L66" s="9"/>
       <c r="M66" s="9"/>
     </row>
-    <row r="67" spans="1:19" customHeight="1" ht="44">
-      <c r="A67" s="17">
+    <row r="67" spans="1:19" customHeight="1" ht="44.5">
+      <c r="A67" s="16">
         <v>59</v>
       </c>
-      <c r="B67" s="17" t="s">
+      <c r="B67" s="16" t="s">
         <v>93</v>
       </c>
       <c r="C67" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D67" s="17" t="s">
+      <c r="D67" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17" t="s">
+      <c r="E67" s="16"/>
+      <c r="F67" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="G67" s="17"/>
-      <c r="H67" s="17"/>
-      <c r="I67" s="17"/>
-      <c r="J67" s="17"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="16"/>
       <c r="K67" s="9"/>
       <c r="L67" s="9"/>
       <c r="M67" s="9"/>
@@ -2489,14 +2481,14 @@
     </row>
     <row r="70" spans="1:19" customHeight="1" ht="20">
       <c r="A70" s="6"/>
-      <c r="B70" s="20" t="s">
+      <c r="B70" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="21" t="s">
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19" t="s">
         <v>95</v>
       </c>
       <c r="H70" s="7"/>
@@ -2508,14 +2500,14 @@
     </row>
     <row r="71" spans="1:19" customHeight="1" ht="20">
       <c r="A71" s="6"/>
-      <c r="B71" s="20" t="s">
+      <c r="B71" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="21" t="s">
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19" t="s">
         <v>97</v>
       </c>
       <c r="H71" s="7"/>
@@ -2527,12 +2519,12 @@
     </row>
     <row r="72" spans="1:19" customHeight="1" ht="17.1">
       <c r="A72" s="6"/>
-      <c r="B72" s="20"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="21"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
@@ -2542,12 +2534,12 @@
     </row>
     <row r="73" spans="1:19" customHeight="1" ht="17.1">
       <c r="A73" s="6"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="21"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
       <c r="H73" s="7"/>
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
@@ -2557,12 +2549,12 @@
     </row>
     <row r="74" spans="1:19" customHeight="1" ht="17.1">
       <c r="A74" s="6"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="21"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="21"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
       <c r="H74" s="7"/>
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
@@ -2572,12 +2564,12 @@
     </row>
     <row r="75" spans="1:19" customHeight="1" ht="17.1">
       <c r="A75" s="6"/>
-      <c r="B75" s="20"/>
-      <c r="C75" s="21"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="21"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="19"/>
       <c r="H75" s="7"/>
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
@@ -2587,14 +2579,14 @@
     </row>
     <row r="76" spans="1:19" customHeight="1" ht="20">
       <c r="A76" s="6"/>
-      <c r="B76" s="20" t="s">
+      <c r="B76" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C76" s="21"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="21" t="s">
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19" t="s">
         <v>99</v>
       </c>
       <c r="H76" s="7"/>
@@ -2606,14 +2598,14 @@
     </row>
     <row r="77" spans="1:19" customHeight="1" ht="20">
       <c r="A77" s="6"/>
-      <c r="B77" s="20" t="s">
+      <c r="B77" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C77" s="21"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="21" t="s">
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="19" t="s">
         <v>101</v>
       </c>
       <c r="H77" s="7"/>

--- a/hasil/2023_01_lipa_19.xlsx
+++ b/hasil/2023_01_lipa_19.xlsx
@@ -308,7 +308,7 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 17 Juli 2023</t>
+    <t>Ternate , 02 Agustus 2023</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>

--- a/hasil/2023_01_lipa_19.xlsx
+++ b/hasil/2023_01_lipa_19.xlsx
@@ -308,7 +308,7 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 02 Agustus 2023</t>
+    <t>Ternate , 07 September 2023</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>
